--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Unity\Diablo V\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0BB7C2-3970-42DD-A369-5429E1DDEDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1BCF6-E27F-403D-B84D-00479525407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,47 +35,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>blockName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>blockName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>百炼洞</t>
@@ -139,6 +135,22 @@
   </si>
   <si>
     <t>table;number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,13 +517,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -521,16 +533,16 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -563,30 +575,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -595,10 +607,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -607,10 +619,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -619,10 +631,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -631,10 +643,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -643,10 +655,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -655,10 +667,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -667,10 +679,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -679,10 +691,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Unity\Diablo V\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1BCF6-E27F-403D-B84D-00479525407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99315DD1-F3F4-4220-976A-2370C1079D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,147 @@
   </si>
   <si>
     <t>255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DruidHomeDemo
+_ForestDemo
+_JungleDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FjordDemo
+_OceanDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DesertWarrens_Demo
+_TribalPlains_Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AncientRuinsDemo
+_UnderwaterTemple_Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DarkFantasyDemo
+_GothicDungeonDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AbstractDemo
+_GothicPalaceDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CaveDemo
+_DungeonDemo
+_RocksDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CastleDemo
+_RuinsDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AsiaDemo
+_AsianBuildingDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_GoblinLair_Demo
+_TundraDemo
+_WastelandDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,15 +315,75 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF332D28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2E2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE499"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC973"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E7E3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF332313"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E6A59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B351F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,11 +406,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +445,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -226,6 +492,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5B351F"/>
+      <color rgb="FF8E6A59"/>
+      <color rgb="FF332313"/>
+      <color rgb="FFFFE4CC"/>
+      <color rgb="FF5E7E3F"/>
+      <color rgb="FFFFC973"/>
+      <color rgb="FFAAAAAA"/>
+      <color rgb="FFFFE499"/>
+      <color rgb="FF664F3D"/>
+      <color rgb="FFE2E2E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,7 +781,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -511,41 +791,46 @@
   <cols>
     <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -564,151 +849,258 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B14">
     <sortCondition ref="B5:B14"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
